--- a/Buses dataset.xlsx
+++ b/Buses dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aniru\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\Mobility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1BF7F8-D621-4AE3-BEFE-59886D135E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9215CFEE-B65D-454C-8241-1E964CF2DF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>City</t>
   </si>
@@ -44,30 +44,9 @@
     <t>Year</t>
   </si>
   <si>
-    <t>No. of bus stops</t>
-  </si>
-  <si>
-    <t>Fleet size</t>
-  </si>
-  <si>
     <t>Transport Corporation</t>
   </si>
   <si>
-    <t>Mode Share</t>
-  </si>
-  <si>
-    <t>Total Number of Trips - Bus</t>
-  </si>
-  <si>
-    <t>Total Number of Trips - All modes of transport</t>
-  </si>
-  <si>
-    <t>Average No. of passengers (day-to-day basis)</t>
-  </si>
-  <si>
-    <t>Total buses registered &amp; active in the city</t>
-  </si>
-  <si>
     <t>No. of Buses (by the transport corporation)</t>
   </si>
   <si>
@@ -86,15 +65,6 @@
     <t>Average Ticket Price per trip</t>
   </si>
   <si>
-    <t>% of monthly income spent on transport (MPCE)</t>
-  </si>
-  <si>
-    <t>Expenditures (annual)</t>
-  </si>
-  <si>
-    <t>Revenues (annual)</t>
-  </si>
-  <si>
     <t>Budget / Finances</t>
   </si>
   <si>
@@ -132,6 +102,51 @@
   </si>
   <si>
     <t>Bangalore</t>
+  </si>
+  <si>
+    <t>BEST</t>
+  </si>
+  <si>
+    <t>DTC</t>
+  </si>
+  <si>
+    <t>PMPML</t>
+  </si>
+  <si>
+    <t>MTC</t>
+  </si>
+  <si>
+    <t>AMTS, BRTS</t>
+  </si>
+  <si>
+    <t>TSRTC (GHZ)</t>
+  </si>
+  <si>
+    <t>% of household expenditure on transport (nsso 2010)</t>
+  </si>
+  <si>
+    <t>Mode Share of Bus Travel (%)</t>
+  </si>
+  <si>
+    <t>Share of MPCE on transport (Monthly Per Capita Expenditure in Rupees, nsso 2010)</t>
+  </si>
+  <si>
+    <t>Profit/Loss for the year</t>
+  </si>
+  <si>
+    <t>Total Operating Expenses</t>
+  </si>
+  <si>
+    <t>Average Buses on Road per day</t>
+  </si>
+  <si>
+    <t>Number of Bus Stops</t>
+  </si>
+  <si>
+    <t>Fleet size / Utilisation</t>
+  </si>
+  <si>
+    <t>Average Daily Ridership</t>
   </si>
 </sst>
 </file>
@@ -155,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -235,11 +250,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -253,8 +294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -263,9 +302,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -282,6 +318,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,245 +610,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="3" t="s">
+      <c r="L2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>19</v>
+      <c r="P2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="B3">
         <v>10557000</v>
       </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>3200</v>
+        <v>42</v>
       </c>
       <c r="F3">
+        <v>6674</v>
+      </c>
+      <c r="H3">
         <v>2212</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="I3">
+        <v>5074000</v>
+      </c>
       <c r="J3">
-        <v>50.74</v>
+        <v>163.59773623333334</v>
       </c>
       <c r="K3">
-        <v>163.59773623333334</v>
-      </c>
-      <c r="L3">
         <v>143.03530493333335</v>
+      </c>
+      <c r="M3">
+        <v>481.03</v>
+      </c>
+      <c r="N3" s="16">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="B4">
         <v>10990000</v>
       </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>3500</v>
+        <v>42</v>
       </c>
       <c r="F4">
+        <v>6394</v>
+      </c>
+      <c r="G4">
+        <v>5579</v>
+      </c>
+      <c r="H4">
         <v>2212</v>
       </c>
-      <c r="G4">
-        <v>43066</v>
+      <c r="I4">
+        <v>4534000</v>
       </c>
       <c r="J4">
-        <v>45.34</v>
+        <v>187.62597103333334</v>
       </c>
       <c r="K4">
-        <v>187.62597103333334</v>
-      </c>
-      <c r="L4">
         <v>140.33985699999999</v>
+      </c>
+      <c r="M4">
+        <v>481.03</v>
+      </c>
+      <c r="N4" s="16">
+        <v>14</v>
+      </c>
+      <c r="O4">
+        <v>34306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="B5">
         <v>11440000</v>
       </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3682</v>
+        <v>42</v>
       </c>
       <c r="F5">
+        <v>6269</v>
+      </c>
+      <c r="G5">
+        <v>5597</v>
+      </c>
+      <c r="H5">
         <v>2212</v>
       </c>
-      <c r="G5">
-        <v>46587</v>
+      <c r="I5">
+        <v>4437000</v>
       </c>
       <c r="J5">
-        <v>44.37</v>
+        <v>195.66913913333335</v>
       </c>
       <c r="K5">
-        <v>195.66913913333335</v>
-      </c>
-      <c r="L5">
         <v>141.24891243333335</v>
+      </c>
+      <c r="M5">
+        <v>481.03</v>
+      </c>
+      <c r="N5" s="16">
+        <v>14</v>
+      </c>
+      <c r="O5">
+        <v>34114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>5792000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>20.41</v>
+      </c>
+      <c r="H6">
+        <v>2392</v>
+      </c>
+      <c r="I6">
+        <v>1124328</v>
+      </c>
+      <c r="J6">
+        <v>81.010000000000005</v>
+      </c>
+      <c r="K6">
+        <v>67.77</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>5952000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>19.14</v>
+      </c>
+      <c r="F7">
+        <v>2045</v>
+      </c>
+      <c r="G7">
+        <v>1382</v>
+      </c>
+      <c r="H7">
+        <v>2392</v>
+      </c>
+      <c r="I7">
+        <v>1079223</v>
+      </c>
+      <c r="J7">
+        <v>85.19</v>
+      </c>
+      <c r="K7">
+        <v>65.94</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>6115000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="H8">
+        <v>2392</v>
+      </c>
+      <c r="I8">
+        <v>1089208</v>
+      </c>
+      <c r="J8">
+        <v>76.98</v>
+      </c>
+      <c r="K8">
+        <v>58.73</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
